--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_quarter.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.06430220027675157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06389742988633343</v>
+        <v>0.06109198740482865</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6294813998215323</v>
+        <v>-4.992384176756656</v>
       </c>
       <c r="I2" t="n">
-        <v>14.78929627118486</v>
+        <v>-18.30683187187097</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05620703983727632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06659599801704395</v>
+        <v>0.067676696442485</v>
       </c>
       <c r="H3" t="n">
-        <v>18.48337540963634</v>
+        <v>20.406085498212</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.02031160804577985</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.01885968193313321</v>
+        <v>-0.02057860590377215</v>
       </c>
       <c r="H4" t="n">
-        <v>-7.148257830567522</v>
+        <v>-1.314508715363747</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.0114313309642807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01719976484118298</v>
+        <v>-0.01870724044074673</v>
       </c>
       <c r="H5" t="n">
-        <v>50.46161199362361</v>
+        <v>-63.64883931014639</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.01119355766909296</v>
       </c>
       <c r="G6" t="n">
-        <v>5.10453742244077e-05</v>
+        <v>-0.02505877085537056</v>
       </c>
       <c r="H6" t="n">
-        <v>-100.4560245789</v>
+        <v>-123.8677960677459</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.005663736011200975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.011724889278471</v>
+        <v>-0.0233242581144179</v>
       </c>
       <c r="H7" t="n">
-        <v>107.0168746439292</v>
+        <v>-311.8175364863462</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.005689162997188748</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.00434573506430859</v>
+        <v>-0.003748757949902887</v>
       </c>
       <c r="H8" t="n">
-        <v>-23.61380634627627</v>
+        <v>34.10703908896081</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.00549314623748372</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.008300156230759328</v>
+        <v>-8.026014476906685e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>51.10022329500975</v>
+        <v>98.53890391227173</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.06302175465285266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05978887230772269</v>
+        <v>-0.06291384425344568</v>
       </c>
       <c r="H10" t="n">
-        <v>-5.129787900920713</v>
+        <v>0.1712272214593091</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.06407804798776505</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06631269234506622</v>
+        <v>-0.05993904288554885</v>
       </c>
       <c r="H11" t="n">
-        <v>3.487378950319847</v>
+        <v>6.459318334738437</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.3946034008486138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4020566949409775</v>
+        <v>-0.3963079336387677</v>
       </c>
       <c r="H12" t="n">
-        <v>1.888806349954171</v>
+        <v>-0.4319609984324115</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.3921192001403502</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4145897069695113</v>
+        <v>-0.422691146751019</v>
       </c>
       <c r="H13" t="n">
-        <v>5.730529599447903</v>
+        <v>-7.796595167930128</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.008194263515627137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02056741433256423</v>
+        <v>-0.01688172189131988</v>
       </c>
       <c r="H14" t="n">
-        <v>150.9977167971285</v>
+        <v>-106.0187820311739</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.04531867545837153</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01600284130567475</v>
+        <v>-0.01304068755358358</v>
       </c>
       <c r="H15" t="n">
-        <v>-64.68819720829106</v>
+        <v>71.22447330667818</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1367496493365438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1399105539248528</v>
+        <v>0.1447753379616255</v>
       </c>
       <c r="H16" t="n">
-        <v>2.311453523752702</v>
+        <v>5.868891557688986</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.139470638516013</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1418386252270398</v>
+        <v>0.1439244079370158</v>
       </c>
       <c r="H17" t="n">
-        <v>1.697838868612432</v>
+        <v>3.193338374579437</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1176682078228325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1169483926489346</v>
+        <v>0.1172087943696962</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.6117329287293019</v>
+        <v>-0.3904312487090952</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1286688512358997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1212338243835017</v>
+        <v>0.1193034598386365</v>
       </c>
       <c r="H19" t="n">
-        <v>-5.778420170058647</v>
+        <v>-7.278678022929432</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0887346326950179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09216621270438395</v>
+        <v>0.09160659898137542</v>
       </c>
       <c r="H20" t="n">
-        <v>3.867238647575675</v>
+        <v>3.23657877328293</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0870910252674075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09653194459888635</v>
+        <v>0.09018216569223217</v>
       </c>
       <c r="H21" t="n">
-        <v>10.84028957345617</v>
+        <v>3.549321431609647</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.09348316940674502</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.09545004427389907</v>
+        <v>-0.09182477211001129</v>
       </c>
       <c r="H22" t="n">
-        <v>2.103988214815635</v>
+        <v>1.774006280764877</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.1014450181243147</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.09768240835925809</v>
+        <v>-0.1024413551517454</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.709013842794875</v>
+        <v>-0.9821448562508609</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1610910614870565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1635657051146923</v>
+        <v>0.1608108847432235</v>
       </c>
       <c r="H24" t="n">
-        <v>1.536176870890264</v>
+        <v>-0.1739244507092207</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1705957319629827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1629966653919346</v>
+        <v>0.1701397034994159</v>
       </c>
       <c r="H25" t="n">
-        <v>-4.454429476991251</v>
+        <v>-0.2673152829320175</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.09065379568887895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09411120434566554</v>
+        <v>0.08701313342394233</v>
       </c>
       <c r="H26" t="n">
-        <v>3.813859784373853</v>
+        <v>-4.016006431138591</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08596174627959136</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08681595946690984</v>
+        <v>0.08254698651311029</v>
       </c>
       <c r="H27" t="n">
-        <v>0.993713162294482</v>
+        <v>-3.972417865238016</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1376404363611178</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1333363153633068</v>
+        <v>-0.1384982976314527</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.127075960816171</v>
+        <v>-0.6232625331731505</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.139799765468738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1365278483719149</v>
+        <v>-0.1439768029557718</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.340431034238597</v>
+        <v>-2.987871598373936</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.05201527458957067</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05181376468626181</v>
+        <v>0.05156404773301053</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.3874052475909923</v>
+        <v>-0.8674891368363835</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.04381940301294323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04713466270272763</v>
+        <v>0.04714520345484524</v>
       </c>
       <c r="H31" t="n">
-        <v>7.565734496211979</v>
+        <v>7.58978948416903</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.1087039316652881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1124124536958259</v>
+        <v>0.1093347653979893</v>
       </c>
       <c r="H32" t="n">
-        <v>3.411580403509936</v>
+        <v>0.580322830128719</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1240951924378725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1236012282292637</v>
+        <v>0.11895348956238</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.3980526553082196</v>
+        <v>-4.14335380322381</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01561639394697787</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.02020076170520319</v>
+        <v>-0.01201637087133283</v>
       </c>
       <c r="H34" t="n">
-        <v>29.35612263490893</v>
+        <v>23.05284490048182</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01673728840714555</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01201516466998871</v>
+        <v>-0.01871457632773259</v>
       </c>
       <c r="H35" t="n">
-        <v>-28.21319452881538</v>
+        <v>-11.81366940981246</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0367669095218597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03195506852940852</v>
+        <v>0.0317348054078177</v>
       </c>
       <c r="H36" t="n">
-        <v>-13.08742305248775</v>
+        <v>-13.68650283497494</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.03568564846322125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0385961966960758</v>
+        <v>0.03689980585449666</v>
       </c>
       <c r="H37" t="n">
-        <v>8.156074943837014</v>
+        <v>3.402368861327424</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1003022293749185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0999762810538589</v>
+        <v>0.1001395117177247</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.3249661778117052</v>
+        <v>-0.1622273584623784</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.09740001496869774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09797417832294329</v>
+        <v>0.1024774038693842</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5894900061669146</v>
+        <v>5.212924148233674</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.03368761974707651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03934508487591846</v>
+        <v>0.04258022130560988</v>
       </c>
       <c r="H40" t="n">
-        <v>16.79389986979688</v>
+        <v>26.3972391795508</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.03221872503435347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04039993533090754</v>
+        <v>0.04228916665046199</v>
       </c>
       <c r="H41" t="n">
-        <v>25.39271894785034</v>
+        <v>31.25648704401194</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.120905430485417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1216436205488125</v>
+        <v>0.1182671872457674</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6105516190892134</v>
+        <v>-2.182071747362758</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1277854472102046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1220267277776176</v>
+        <v>0.1217143384146356</v>
       </c>
       <c r="H43" t="n">
-        <v>-4.506553413014254</v>
+        <v>-4.751017371784244</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03966663921623352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03775935638144647</v>
+        <v>0.03961865258102002</v>
       </c>
       <c r="H44" t="n">
-        <v>-4.808279381547644</v>
+        <v>-0.1209747943401801</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.03116235293120943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03597465053381536</v>
+        <v>0.04089023683135639</v>
       </c>
       <c r="H45" t="n">
-        <v>15.44266446512888</v>
+        <v>31.21678238360615</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05661766501078581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05648675010641036</v>
+        <v>0.05951572564746652</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.2312262512954319</v>
+        <v>5.11865093010923</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.05867018666263921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06216643538247756</v>
+        <v>0.06078580517578842</v>
       </c>
       <c r="H47" t="n">
-        <v>5.95915731433107</v>
+        <v>3.605951563294449</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.0492573227224047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0409842983222049</v>
+        <v>0.04908010696352166</v>
       </c>
       <c r="H48" t="n">
-        <v>-16.79552184925555</v>
+        <v>-0.3597754589338136</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.04556774728077833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04197318901709848</v>
+        <v>0.04660526343423394</v>
       </c>
       <c r="H49" t="n">
-        <v>-7.888382635048815</v>
+        <v>2.276865141176867</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.02648648375354524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02924788618038262</v>
+        <v>0.02732719686470184</v>
       </c>
       <c r="H50" t="n">
-        <v>10.42570411585026</v>
+        <v>3.174121257390639</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.02801586845999868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02501794778703154</v>
+        <v>0.0258306650619133</v>
       </c>
       <c r="H51" t="n">
-        <v>-10.70079507707427</v>
+        <v>-7.799877420203607</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.0869236411111307</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.08943417239883665</v>
+        <v>-0.08744666574696575</v>
       </c>
       <c r="H52" t="n">
-        <v>2.888203089072479</v>
+        <v>-0.6017058525727982</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.08021620192907158</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07730141503468574</v>
+        <v>-0.08381474419893702</v>
       </c>
       <c r="H53" t="n">
-        <v>-3.63366355460602</v>
+        <v>-4.486054167769398</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05002670192732103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04574770254980196</v>
+        <v>0.04185830603786439</v>
       </c>
       <c r="H54" t="n">
-        <v>-8.553430893237007</v>
+        <v>-16.32807195909839</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.05628505677750023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05171704276952146</v>
+        <v>0.05064042868611905</v>
       </c>
       <c r="H55" t="n">
-        <v>-8.11585573420763</v>
+        <v>-10.02864421669661</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04943189498738422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04786909299763509</v>
+        <v>0.0523152772270862</v>
       </c>
       <c r="H56" t="n">
-        <v>-3.161525549744722</v>
+        <v>5.833040065402835</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.03798397785815282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04605877103997376</v>
+        <v>0.04533536398827245</v>
       </c>
       <c r="H57" t="n">
-        <v>21.25841904177442</v>
+        <v>19.35391326725338</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.05761405260974202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05883323606083558</v>
+        <v>0.05502003170904462</v>
       </c>
       <c r="H58" t="n">
-        <v>2.116121668010217</v>
+        <v>-4.502410060039372</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.05701330928205455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06039038503543416</v>
+        <v>0.05938952769526064</v>
       </c>
       <c r="H59" t="n">
-        <v>5.923311233650094</v>
+        <v>4.167831061078264</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.0274599995184495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02695789096932791</v>
+        <v>0.02798418471821184</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.828508950935119</v>
+        <v>1.908904621102251</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.02669782531682307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03529669883041928</v>
+        <v>0.02775485444626683</v>
       </c>
       <c r="H61" t="n">
-        <v>32.20814209229924</v>
+        <v>3.95923307198245</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06244723127188902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0621329509655932</v>
+        <v>0.06145808582905458</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.503273403631732</v>
+        <v>-1.583970053896864</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.06388266935418922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.05773187984021842</v>
+        <v>0.06100690466595073</v>
       </c>
       <c r="H63" t="n">
-        <v>-9.628260021303339</v>
+        <v>-4.501635134083367</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.02773965742366112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02552680859120376</v>
+        <v>0.03210711929153812</v>
       </c>
       <c r="H64" t="n">
-        <v>-7.97720317400122</v>
+        <v>15.74446937528394</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.03542725191258321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02827830458234195</v>
+        <v>0.03227725380273278</v>
       </c>
       <c r="H65" t="n">
-        <v>-20.17923193106058</v>
+        <v>-8.89145485408536</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.07768318116585711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07897790406333415</v>
+        <v>0.08893317158655797</v>
       </c>
       <c r="H66" t="n">
-        <v>1.666670800610937</v>
+        <v>14.48188687932543</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.07887083315115107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0842676262316288</v>
+        <v>0.07812510757941661</v>
       </c>
       <c r="H67" t="n">
-        <v>6.842571410568357</v>
+        <v>-0.9455023383679962</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.02174569273343878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01877629657615093</v>
+        <v>-0.02393700525425549</v>
       </c>
       <c r="H68" t="n">
-        <v>-13.65510031658706</v>
+        <v>-10.07699569601241</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.01914131219638707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.009922948876901526</v>
+        <v>-0.01631030257801391</v>
       </c>
       <c r="H69" t="n">
-        <v>-48.1595160504488</v>
+        <v>14.79004986349637</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.07198586282950344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07236671874297099</v>
+        <v>0.07470937590687834</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5290704292446947</v>
+        <v>3.783399920933747</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.07942103784650886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0772104781467929</v>
+        <v>0.07575965578201758</v>
       </c>
       <c r="H71" t="n">
-        <v>-2.783342751058165</v>
+        <v>-4.610090932792088</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.153641482353053</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1543312684563739</v>
+        <v>-0.1484221301178276</v>
       </c>
       <c r="H72" t="n">
-        <v>0.4489582453623069</v>
+        <v>3.397098332618171</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.1530755548355022</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1492117788151664</v>
+        <v>-0.1455004648481245</v>
       </c>
       <c r="H73" t="n">
-        <v>-2.524097348193764</v>
+        <v>4.948595479871373</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.1504191938700591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1508224738613232</v>
+        <v>0.1524565049374337</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2681040769387993</v>
+        <v>1.354422274815918</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.1504473245389763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1586267191999377</v>
+        <v>0.1530141787685479</v>
       </c>
       <c r="H75" t="n">
-        <v>5.436716595676231</v>
+        <v>1.70614814017952</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>-0.001036461659646316</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01092002282474466</v>
+        <v>-0.01069541015616207</v>
       </c>
       <c r="H76" t="n">
-        <v>953.5867606015478</v>
+        <v>-931.9156581066194</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.002207887785011652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.003939969956550188</v>
+        <v>-0.01019120307860143</v>
       </c>
       <c r="H77" t="n">
-        <v>78.44973749557633</v>
+        <v>-361.5815689449836</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.08995825041656207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0999390413425518</v>
+        <v>0.09755909286077187</v>
       </c>
       <c r="H78" t="n">
-        <v>11.09491445172903</v>
+        <v>8.44929999084378</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.09690136472519406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1036867137614638</v>
+        <v>0.09991899633378908</v>
       </c>
       <c r="H79" t="n">
-        <v>7.002325566324623</v>
+        <v>3.114127047800431</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.2164333678654655</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2333175479019945</v>
+        <v>-0.218095592820294</v>
       </c>
       <c r="H80" t="n">
-        <v>7.801098417977846</v>
+        <v>-0.7680077112054862</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2131138853448898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2109740634060469</v>
+        <v>-0.2144794231051746</v>
       </c>
       <c r="H81" t="n">
-        <v>-1.004074387447786</v>
+        <v>-0.640754945683107</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1676176682046469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1682898173307809</v>
+        <v>0.1646579162420391</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4010013582299487</v>
+        <v>-1.765775645437451</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1760289321846955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1836193148409178</v>
+        <v>0.1770018760409023</v>
       </c>
       <c r="H83" t="n">
-        <v>4.312008578372912</v>
+        <v>0.5527181493017058</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.1061296970151781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1054795915477977</v>
+        <v>0.1110816330396745</v>
       </c>
       <c r="H84" t="n">
-        <v>-0.6125575457804572</v>
+        <v>4.665928730379957</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.1045588069048112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1060017996665642</v>
+        <v>0.1132343022493931</v>
       </c>
       <c r="H85" t="n">
-        <v>1.380077684959314</v>
+        <v>8.297240186070542</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_quarter.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Manual Recurrence/input 250/S&P500_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06430220027675157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06109198740482865</v>
+        <v>0.0660631340634117</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.992384176756656</v>
+        <v>2.738528042712711</v>
       </c>
       <c r="I2" t="n">
-        <v>-18.30683187187097</v>
+        <v>-18.9057559471936</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05620703983727632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.067676696442485</v>
+        <v>0.06356336948195293</v>
       </c>
       <c r="H3" t="n">
-        <v>20.406085498212</v>
+        <v>13.08791508318842</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.02031160804577985</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02057860590377215</v>
+        <v>-0.02674361622732047</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.314508715363747</v>
+        <v>-31.66666158111986</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.0114313309642807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01870724044074673</v>
+        <v>-0.0210266570879688</v>
       </c>
       <c r="H5" t="n">
-        <v>-63.64883931014639</v>
+        <v>-83.93883576348603</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.01119355766909296</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02505877085537056</v>
+        <v>-0.0210807758361546</v>
       </c>
       <c r="H6" t="n">
-        <v>-123.8677960677459</v>
+        <v>-88.32954150369625</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.005663736011200975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0233242581144179</v>
+        <v>-0.005864482976689699</v>
       </c>
       <c r="H7" t="n">
-        <v>-311.8175364863462</v>
+        <v>-3.54442659565547</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.005689162997188748</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.003748757949902887</v>
+        <v>-0.00251034042535189</v>
       </c>
       <c r="H8" t="n">
-        <v>34.10703908896081</v>
+        <v>55.87504828755384</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.00549314623748372</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.026014476906685e-05</v>
+        <v>0.002777542447409621</v>
       </c>
       <c r="H9" t="n">
-        <v>98.53890391227173</v>
+        <v>150.5637812526533</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.06302175465285266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06291384425344568</v>
+        <v>-0.05130216644075393</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1712272214593091</v>
+        <v>18.59609951619817</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.06407804798776505</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05993904288554885</v>
+        <v>-0.0595431007694221</v>
       </c>
       <c r="H11" t="n">
-        <v>6.459318334738437</v>
+        <v>7.077224354913008</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.3946034008486138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3963079336387677</v>
+        <v>-0.4000754309783888</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.4319609984324115</v>
+        <v>-1.386716414001292</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.3921192001403502</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.422691146751019</v>
+        <v>-0.3944496425373868</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.796595167930128</v>
+        <v>-0.5943198895138226</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.008194263515627137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01688172189131988</v>
+        <v>-0.02010618719954353</v>
       </c>
       <c r="H14" t="n">
-        <v>-106.0187820311739</v>
+        <v>-145.3690580147852</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.04531867545837153</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01304068755358358</v>
+        <v>-0.01760720310051035</v>
       </c>
       <c r="H15" t="n">
-        <v>71.22447330667818</v>
+        <v>61.14801917217586</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1367496493365438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1447753379616255</v>
+        <v>0.1393000147914633</v>
       </c>
       <c r="H16" t="n">
-        <v>5.868891557688986</v>
+        <v>1.864988661611127</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.139470638516013</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1439244079370158</v>
+        <v>0.1363137469338641</v>
       </c>
       <c r="H17" t="n">
-        <v>3.193338374579437</v>
+        <v>-2.263481128170521</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1176682078228325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1172087943696962</v>
+        <v>0.1207522605802994</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3904312487090952</v>
+        <v>2.620973680597249</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1286688512358997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1193034598386365</v>
+        <v>0.1281581394524216</v>
       </c>
       <c r="H19" t="n">
-        <v>-7.278678022929432</v>
+        <v>-0.3969195174842691</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0887346326950179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09160659898137542</v>
+        <v>0.0841121003440323</v>
       </c>
       <c r="H20" t="n">
-        <v>3.23657877328293</v>
+        <v>-5.209389176008994</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0870910252674075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09018216569223217</v>
+        <v>0.08957004475208051</v>
       </c>
       <c r="H21" t="n">
-        <v>3.549321431609647</v>
+        <v>2.846469515155363</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.09348316940674502</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.09182477211001129</v>
+        <v>-0.09228584658005118</v>
       </c>
       <c r="H22" t="n">
-        <v>1.774006280764877</v>
+        <v>1.280789723211342</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.1014450181243147</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1024413551517454</v>
+        <v>-0.1021175287202333</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.9821448562508609</v>
+        <v>-0.6629311210674599</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1610910614870565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1608108847432235</v>
+        <v>0.1650092038408611</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.1739244507092207</v>
+        <v>2.43225311052991</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1705957319629827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1701397034994159</v>
+        <v>0.1654220083056953</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.2673152829320175</v>
+        <v>-3.032739212027896</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.09065379568887895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08701313342394233</v>
+        <v>0.08472517736268323</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.016006431138591</v>
+        <v>-6.539845663542381</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08596174627959136</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08254698651311029</v>
+        <v>0.08684968559229002</v>
       </c>
       <c r="H27" t="n">
-        <v>-3.972417865238016</v>
+        <v>1.032947038803321</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1376404363611178</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1384982976314527</v>
+        <v>-0.13912407947174</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.6232625331731505</v>
+        <v>-1.077912239924648</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.139799765468738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1439768029557718</v>
+        <v>-0.1399173333515358</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.987871598373936</v>
+        <v>-0.08409733907892905</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.05201527458957067</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05156404773301053</v>
+        <v>0.04720181092433203</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.8674891368363835</v>
+        <v>-9.253942622084635</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.04381940301294323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04714520345484524</v>
+        <v>0.04047918616588922</v>
       </c>
       <c r="H31" t="n">
-        <v>7.58978948416903</v>
+        <v>-7.622689076953851</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.1087039316652881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1093347653979893</v>
+        <v>0.1129249075766267</v>
       </c>
       <c r="H32" t="n">
-        <v>0.580322830128719</v>
+        <v>3.883002065036119</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1240951924378725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.11895348956238</v>
+        <v>0.1220849181347932</v>
       </c>
       <c r="H33" t="n">
-        <v>-4.14335380322381</v>
+        <v>-1.619945352907786</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01561639394697787</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01201637087133283</v>
+        <v>-0.01345107312060873</v>
       </c>
       <c r="H34" t="n">
-        <v>23.05284490048182</v>
+        <v>13.86569033620069</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01673728840714555</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01871457632773259</v>
+        <v>-0.01593486822756995</v>
       </c>
       <c r="H35" t="n">
-        <v>-11.81366940981246</v>
+        <v>4.794206564744542</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0367669095218597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0317348054078177</v>
+        <v>0.03818272394605431</v>
       </c>
       <c r="H36" t="n">
-        <v>-13.68650283497494</v>
+        <v>3.850784421662749</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.03568564846322125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03689980585449666</v>
+        <v>0.03857868563570754</v>
       </c>
       <c r="H37" t="n">
-        <v>3.402368861327424</v>
+        <v>8.107004628115245</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1003022293749185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1001395117177247</v>
+        <v>0.09643329384319062</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.1622273584623784</v>
+        <v>-3.857277705429897</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.09740001496869774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1024774038693842</v>
+        <v>0.09923604876824615</v>
       </c>
       <c r="H39" t="n">
-        <v>5.212924148233674</v>
+        <v>1.885044679036729</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.03368761974707651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04258022130560988</v>
+        <v>0.03711660940801744</v>
       </c>
       <c r="H40" t="n">
-        <v>26.3972391795508</v>
+        <v>10.17878284867102</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.03221872503435347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04228916665046199</v>
+        <v>0.02601160125290979</v>
       </c>
       <c r="H41" t="n">
-        <v>31.25648704401194</v>
+        <v>-19.26557855664768</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.120905430485417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1182671872457674</v>
+        <v>0.1206266355709019</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.182071747362758</v>
+        <v>-0.2305892410256364</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1277854472102046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1217143384146356</v>
+        <v>0.1204020965973095</v>
       </c>
       <c r="H43" t="n">
-        <v>-4.751017371784244</v>
+        <v>-5.777927591981298</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03966663921623352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03961865258102002</v>
+        <v>0.0314114074405368</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.1209747943401801</v>
+        <v>-20.81152308037803</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.03116235293120943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04089023683135639</v>
+        <v>0.03845876768577904</v>
       </c>
       <c r="H45" t="n">
-        <v>31.21678238360615</v>
+        <v>23.41419715859188</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05661766501078581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05951572564746652</v>
+        <v>0.06177468773713839</v>
       </c>
       <c r="H46" t="n">
-        <v>5.11865093010923</v>
+        <v>9.108504784452261</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.05867018666263921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06078580517578842</v>
+        <v>0.05997219168974208</v>
       </c>
       <c r="H47" t="n">
-        <v>3.605951563294449</v>
+        <v>2.21919359927992</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.0492573227224047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04908010696352166</v>
+        <v>0.04158041226092155</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.3597754589338136</v>
+        <v>-15.58531815613946</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.04556774728077833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04660526343423394</v>
+        <v>0.03880887395268096</v>
       </c>
       <c r="H49" t="n">
-        <v>2.276865141176867</v>
+        <v>-14.83258166450646</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.02648648375354524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02732719686470184</v>
+        <v>0.02643156032871881</v>
       </c>
       <c r="H50" t="n">
-        <v>3.174121257390639</v>
+        <v>-0.2073639722716356</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.02801586845999868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0258306650619133</v>
+        <v>0.02472214748786557</v>
       </c>
       <c r="H51" t="n">
-        <v>-7.799877420203607</v>
+        <v>-11.75662634494417</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.0869236411111307</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.08744666574696575</v>
+        <v>-0.09163272701319194</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.6017058525727982</v>
+        <v>-5.417497290571093</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.08021620192907158</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08381474419893702</v>
+        <v>-0.08259175659697496</v>
       </c>
       <c r="H53" t="n">
-        <v>-4.486054167769398</v>
+        <v>-2.961439971944665</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05002670192732103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04185830603786439</v>
+        <v>0.04755173608070471</v>
       </c>
       <c r="H54" t="n">
-        <v>-16.32807195909839</v>
+        <v>-4.94728964985931</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.05628505677750023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05064042868611905</v>
+        <v>0.05177348624168813</v>
       </c>
       <c r="H55" t="n">
-        <v>-10.02864421669661</v>
+        <v>-8.015574282258854</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04943189498738422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0523152772270862</v>
+        <v>0.04629036172512352</v>
       </c>
       <c r="H56" t="n">
-        <v>5.833040065402835</v>
+        <v>-6.355275805352938</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.03798397785815282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04533536398827245</v>
+        <v>0.04577435839564877</v>
       </c>
       <c r="H57" t="n">
-        <v>19.35391326725338</v>
+        <v>20.50964900671622</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.05761405260974202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05502003170904462</v>
+        <v>0.06017998568087331</v>
       </c>
       <c r="H58" t="n">
-        <v>-4.502410060039372</v>
+        <v>4.453658360941983</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.05701330928205455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05938952769526064</v>
+        <v>0.06214654204626573</v>
       </c>
       <c r="H59" t="n">
-        <v>4.167831061078264</v>
+        <v>9.003569217173844</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.0274599995184495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02798418471821184</v>
+        <v>0.03129995775716669</v>
       </c>
       <c r="H60" t="n">
-        <v>1.908904621102251</v>
+        <v>13.9838248581805</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.02669782531682307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02775485444626683</v>
+        <v>0.03414971972427637</v>
       </c>
       <c r="H61" t="n">
-        <v>3.95923307198245</v>
+        <v>27.91199028018828</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06244723127188902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06145808582905458</v>
+        <v>0.05891929445567071</v>
       </c>
       <c r="H62" t="n">
-        <v>-1.583970053896864</v>
+        <v>-5.64946875043671</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.06388266935418922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06100690466595073</v>
+        <v>0.07128809251749732</v>
       </c>
       <c r="H63" t="n">
-        <v>-4.501635134083367</v>
+        <v>11.59222561951769</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.02773965742366112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03210711929153812</v>
+        <v>0.02698873247534056</v>
       </c>
       <c r="H64" t="n">
-        <v>15.74446937528394</v>
+        <v>-2.707044780156671</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.03542725191258321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03227725380273278</v>
+        <v>0.0359876753373433</v>
       </c>
       <c r="H65" t="n">
-        <v>-8.89145485408536</v>
+        <v>1.581899228715053</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.07768318116585711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08893317158655797</v>
+        <v>0.0740346404816918</v>
       </c>
       <c r="H66" t="n">
-        <v>14.48188687932543</v>
+        <v>-4.696693195886911</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.07887083315115107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.07812510757941661</v>
+        <v>0.08415757293373134</v>
       </c>
       <c r="H67" t="n">
-        <v>-0.9455023383679962</v>
+        <v>6.703035293729645</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.02174569273343878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.02393700525425549</v>
+        <v>-0.02427496726573776</v>
       </c>
       <c r="H68" t="n">
-        <v>-10.07699569601241</v>
+        <v>-11.63115180235057</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.01914131219638707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01631030257801391</v>
+        <v>-0.01831565049889464</v>
       </c>
       <c r="H69" t="n">
-        <v>14.79004986349637</v>
+        <v>4.313506247749692</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.07198586282950344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07470937590687834</v>
+        <v>0.06832719443162479</v>
       </c>
       <c r="H70" t="n">
-        <v>3.783399920933747</v>
+        <v>-5.082481829167079</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.07942103784650886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07575965578201758</v>
+        <v>0.07457829789918709</v>
       </c>
       <c r="H71" t="n">
-        <v>-4.610090932792088</v>
+        <v>-6.097553090002398</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.153641482353053</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1484221301178276</v>
+        <v>-0.1488246172473464</v>
       </c>
       <c r="H72" t="n">
-        <v>3.397098332618171</v>
+        <v>3.135133189250221</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.1530755548355022</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1455004648481245</v>
+        <v>-0.1506901620164896</v>
       </c>
       <c r="H73" t="n">
-        <v>4.948595479871373</v>
+        <v>1.558310745027827</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.1504191938700591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1524565049374337</v>
+        <v>0.1496237749503082</v>
       </c>
       <c r="H74" t="n">
-        <v>1.354422274815918</v>
+        <v>-0.5288014775813838</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.1504473245389763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1530141787685479</v>
+        <v>0.1615199418480626</v>
       </c>
       <c r="H75" t="n">
-        <v>1.70614814017952</v>
+        <v>7.359796754788893</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>-0.001036461659646316</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01069541015616207</v>
+        <v>-0.01531193957761395</v>
       </c>
       <c r="H76" t="n">
-        <v>-931.9156581066194</v>
+        <v>-1377.328122570306</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.002207887785011652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.01019120307860143</v>
+        <v>-0.006984317583050078</v>
       </c>
       <c r="H77" t="n">
-        <v>-361.5815689449836</v>
+        <v>-216.3348078857739</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.08995825041656207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09755909286077187</v>
+        <v>0.09840894189297424</v>
       </c>
       <c r="H78" t="n">
-        <v>8.44929999084378</v>
+        <v>9.394014931682495</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.09690136472519406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09991899633378908</v>
+        <v>0.1014893687726538</v>
       </c>
       <c r="H79" t="n">
-        <v>3.114127047800431</v>
+        <v>4.734715615689229</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.2164333678654655</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.218095592820294</v>
+        <v>-0.2147572353258361</v>
       </c>
       <c r="H80" t="n">
-        <v>-0.7680077112054862</v>
+        <v>0.7744335155710712</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2131138853448898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2144794231051746</v>
+        <v>-0.2045128927401974</v>
       </c>
       <c r="H81" t="n">
-        <v>-0.640754945683107</v>
+        <v>4.035866828091979</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1676176682046469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1646579162420391</v>
+        <v>0.1687430337755167</v>
       </c>
       <c r="H82" t="n">
-        <v>-1.765775645437451</v>
+        <v>0.6713883941493624</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1760289321846955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1770018760409023</v>
+        <v>0.1790415628959572</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5527181493017058</v>
+        <v>1.711440655733087</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.1061296970151781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1110816330396745</v>
+        <v>0.1128959687053611</v>
       </c>
       <c r="H84" t="n">
-        <v>4.665928730379957</v>
+        <v>6.375474424670526</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,14 +3242,14 @@
         <v>0.1045588069048112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1132343022493931</v>
+        <v>0.1174326723738317</v>
       </c>
       <c r="H85" t="n">
-        <v>8.297240186070542</v>
+        <v>12.31255964955748</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>